--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ041.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ041.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052F55B0-4390-4CF9-80F5-1268724FF722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E038C-6D15-4283-A79D-5B09FDE0DD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -347,6 +347,20 @@
   <si>
     <t>A:新增
 C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualFilingDate</t>
+  </si>
+  <si>
+    <t>實際報送日期</t>
+  </si>
+  <si>
+    <t>ActualFilingMark</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際報送記號</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -924,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1327,20 +1341,40 @@
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="A22" s="18">
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="18">
+        <v>8</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="18">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="18">
+        <v>3</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ041.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ041.xlsx
@@ -5,23 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E038C-6D15-4283-A79D-5B09FDE0DD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C3B60-DB64-4052-8A1C-70E212267E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -362,6 +372,14 @@
   <si>
     <t>實際報送記號</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>findkeyFilingDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ActualFilingDate= , AND ActualFilingMark= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -938,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1868,11 +1886,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1957,6 +1975,17 @@
         <v>62</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ041.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ041.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C3B60-DB64-4052-8A1C-70E212267E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42124E7-905C-443D-8050-19605148EE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -132,9 +122,6 @@
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -380,6 +367,9 @@
   <si>
     <t xml:space="preserve">ActualFilingDate= , AND ActualFilingMark= </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -545,11 +535,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -558,9 +548,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,16 +557,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,9 +574,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -634,9 +618,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -674,9 +658,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,26 +693,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,26 +728,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -956,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -965,908 +915,904 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="16">
+        <v>10</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16">
+        <v>8</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="12" t="s">
+      <c r="C13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="16">
+        <v>8</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="16">
+        <v>8</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="16">
+        <v>9</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="16">
+        <v>32</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>6</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>12</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>13</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="16">
+        <v>6</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="B22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="16">
+        <v>8</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="B23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="16">
         <v>3</v>
       </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="18">
-        <v>3</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <v>3</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="18">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="18">
-        <v>8</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="18">
-        <v>8</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="18">
-        <v>8</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" ht="81" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="18">
-        <v>9</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="18">
-        <v>8</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>9</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="18">
-        <v>32</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="18">
-        <v>8</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="18">
-        <v>6</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>12</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="18">
-        <v>8</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>13</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="18">
-        <v>6</v>
-      </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>14</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="18">
-        <v>8</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>15</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="18">
-        <v>3</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1888,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -1902,88 +1848,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
